--- a/examples/models/RAS_biorecipes_scenario_basic.xlsx
+++ b/examples/models/RAS_biorecipes_scenario_basic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoxiangzhou/Downloads/BioRECIPES/examples/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF87386-8894-F04A-9229-DD05762990FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379E599D-B76C-9644-ACA8-9E7C6D2C82F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="880" windowWidth="28800" windowHeight="15720" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>Element Name</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>Balancing</t>
+  </si>
+  <si>
+    <t>Positive Connection Type</t>
+  </si>
+  <si>
+    <t>Positive Mechanism</t>
+  </si>
+  <si>
+    <t>Positive Site</t>
+  </si>
+  <si>
+    <t>Negative Connection Type</t>
+  </si>
+  <si>
+    <t>Negative Mechanism</t>
+  </si>
+  <si>
+    <t>Negative Site</t>
   </si>
 </sst>
 </file>
@@ -551,18 +569,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="24.33203125" style="1"/>
+    <col min="6" max="9" width="24.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,50 +599,68 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -637,32 +673,38 @@
         <v>11</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="6">
         <v>50</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -675,32 +717,38 @@
         <v>13</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6">
-        <v>50</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>1</v>
+      </c>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U3" s="6">
+        <v>50</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -715,36 +763,42 @@
       <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6">
+      <c r="P4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6">
-        <v>50</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>30</v>
+      <c r="Q4" s="6">
+        <v>1</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U4" s="6">
+        <v>50</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -759,32 +813,38 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6">
-        <v>50</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="6"/>
+      <c r="O5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="6">
+        <v>50</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -801,30 +861,36 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="6">
+      <c r="P6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6">
-        <v>50</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U6" s="6">
+        <v>50</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -839,30 +905,36 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6">
-        <v>50</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="6"/>
+      <c r="P7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U7" s="6">
+        <v>50</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -877,34 +949,40 @@
       <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="6">
+      <c r="P8" s="6">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6">
-        <v>50</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U8" s="6">
+        <v>50</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -919,32 +997,38 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6">
-        <v>50</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>30</v>
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U9" s="6">
+        <v>50</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -961,30 +1045,36 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="6">
+      <c r="P10" s="6">
         <v>0</v>
       </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6">
-        <v>50</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="6">
+        <v>50</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -999,30 +1089,36 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6">
-        <v>50</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="6"/>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U11" s="6">
+        <v>50</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1037,36 +1133,42 @@
       <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="5" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="6">
+      <c r="P12" s="6">
         <v>0</v>
       </c>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6">
-        <v>50</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>30</v>
+      <c r="Q12" s="6">
+        <v>1</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U12" s="6">
+        <v>50</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1083,30 +1185,36 @@
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="6">
+      <c r="P13" s="6">
         <v>0</v>
       </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6">
-        <v>50</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U13" s="6">
+        <v>50</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
@@ -1115,20 +1223,26 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
@@ -1137,20 +1251,26 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="5"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
@@ -1159,20 +1279,26 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="5"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
@@ -1181,18 +1307,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="5"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
